--- a/data/input/datos_fuente.xlsx
+++ b/data/input/datos_fuente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Cler\prueba_tecnica_etl\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE0B7B6-168C-4265-B5E9-0845E6A844D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02FCF25-BDBA-46FF-8F96-6C0309B13CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{BCA57D19-3467-49AF-81D6-24A9BB1631FF}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="ventas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,12 +101,6 @@
     <t>Ian Cler</t>
   </si>
   <si>
-    <t>Alexis Rodas</t>
-  </si>
-  <si>
-    <t>Rodrigo Melgarejo</t>
-  </si>
-  <si>
     <t>ian@gmail.com</t>
   </si>
   <si>
@@ -117,19 +110,25 @@
     <t>rodrigo@gmail.com</t>
   </si>
   <si>
-    <t>Emilio Garcia</t>
-  </si>
-  <si>
     <t>emilio@gmail.com</t>
   </si>
   <si>
-    <t>a6s5d4f</t>
-  </si>
-  <si>
     <t>Calculadora</t>
   </si>
   <si>
     <t>calculadora</t>
+  </si>
+  <si>
+    <t>Calle 4</t>
+  </si>
+  <si>
+    <t>Victor Cabral</t>
+  </si>
+  <si>
+    <t>Henry Caceres</t>
+  </si>
+  <si>
+    <t>Walter Dure</t>
   </si>
 </sst>
 </file>
@@ -139,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,14 +156,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,7 +192,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -517,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A689CA-B477-46B5-9A06-EDE0A6B810E9}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -562,10 +553,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -576,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -590,14 +581,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -616,7 +610,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,13 +680,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>550000</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -709,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54D299F-65EE-40F0-98E7-FF82FBFE0A72}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,10 +743,10 @@
         <v>45787</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>4000000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -769,10 +763,10 @@
         <v>45788</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>12000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -806,18 +800,25 @@
         <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>45789</v>
+        <v>45790</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
-        <f>5*55000</f>
         <v>275000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="5"/>
+      <c r="F6">
+        <f>SUM(F2:F5)</f>
+        <v>40775000</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/input/datos_fuente.xlsx
+++ b/data/input/datos_fuente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Cler\prueba_tecnica_etl\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02FCF25-BDBA-46FF-8F96-6C0309B13CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29801697-BFC6-4381-AAE8-8379881AF518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{BCA57D19-3467-49AF-81D6-24A9BB1631FF}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>24000000</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
       <c r="E6" s="5"/>
       <c r="F6">
         <f>SUM(F2:F5)</f>
-        <v>40775000</v>
+        <v>44775000</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/datos_fuente.xlsx
+++ b/data/input/datos_fuente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Cler\prueba_tecnica_etl\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29801697-BFC6-4381-AAE8-8379881AF518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789ED424-6A47-4C55-8999-40A0DE3D5817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{BCA57D19-3467-49AF-81D6-24A9BB1631FF}"/>
+    <workbookView xWindow="9216" yWindow="2640" windowWidth="13824" windowHeight="7536" activeTab="2" xr2:uid="{BCA57D19-3467-49AF-81D6-24A9BB1631FF}"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A689CA-B477-46B5-9A06-EDE0A6B810E9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="166" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -609,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471CE8BF-35C0-4EF3-939B-22E9DB25E3CD}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="158" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,10 +743,10 @@
         <v>45787</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>28000000</v>
+        <v>32000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
       <c r="E6" s="5"/>
       <c r="F6">
         <f>SUM(F2:F5)</f>
-        <v>44775000</v>
+        <v>48775000</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/datos_fuente.xlsx
+++ b/data/input/datos_fuente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Cler\prueba_tecnica_etl\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789ED424-6A47-4C55-8999-40A0DE3D5817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFD9445-7A00-4577-8CE4-138F2A35DA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9216" yWindow="2640" windowWidth="13824" windowHeight="7536" activeTab="2" xr2:uid="{BCA57D19-3467-49AF-81D6-24A9BB1631FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BCA57D19-3467-49AF-81D6-24A9BB1631FF}"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A689CA-B477-46B5-9A06-EDE0A6B810E9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="166" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54D299F-65EE-40F0-98E7-FF82FBFE0A72}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
